--- a/SND VIP 231115 (2).xlsx
+++ b/SND VIP 231115 (2).xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -340,9 +340,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -438,10 +438,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -456,16 +456,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,7 +527,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -562,7 +562,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -739,7 +739,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87:G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,141 +760,141 @@
     <col min="9" max="12" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C2" s="20" t="s">
+    <row r="2" spans="3:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="6" spans="3:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="11" spans="3:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="17" spans="3:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="10"/>
@@ -905,80 +905,80 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="27" spans="3:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C32" s="10"/>
@@ -1077,60 +1077,60 @@
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G42" s="19" t="s">
+      <c r="G42" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H42" s="19" t="s">
+      <c r="H42" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="I42" s="19" t="s">
+      <c r="I42" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="J42" s="19" t="s">
+      <c r="J42" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="K42" s="19" t="s">
+      <c r="K42" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="L42" s="19" t="s">
+      <c r="L42" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="16" t="s">
@@ -1867,91 +1867,96 @@
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B87" s="17" t="s">
+      <c r="B87" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C97" s="18" t="s">
+      <c r="C97" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D97" s="18"/>
+      <c r="D97" s="20"/>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B87:G95"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="L42:L44"/>
     <mergeCell ref="C2:H4"/>
     <mergeCell ref="C6:H9"/>
     <mergeCell ref="C11:H15"/>
@@ -1965,11 +1970,6 @@
     <mergeCell ref="F42:F44"/>
     <mergeCell ref="G42:G44"/>
     <mergeCell ref="H42:H44"/>
-    <mergeCell ref="B87:G95"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="J42:J44"/>
-    <mergeCell ref="K42:K44"/>
-    <mergeCell ref="L42:L44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SND VIP 231115 (2).xlsx
+++ b/SND VIP 231115 (2).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF802B5-F1FA-254D-A467-CEC74C9806E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -340,7 +341,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
@@ -419,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -445,9 +446,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -456,16 +456,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,164 +739,164 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:G95"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="220" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="11.77734375" style="2" customWidth="1"/>
-    <col min="9" max="12" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="11.83203125" style="2" customWidth="1"/>
+    <col min="9" max="12" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="17" t="s">
+    <row r="2" spans="3:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="6" spans="3:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="17" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="6" spans="3:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="11" spans="3:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="17" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+    </row>
+    <row r="11" spans="3:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-    </row>
-    <row r="17" spans="3:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="17" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="17" spans="3:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -904,83 +904,83 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="17" t="s">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-    </row>
-    <row r="27" spans="3:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="17" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="27" spans="3:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -988,8 +988,8 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C33" s="12" t="s">
+    <row r="33" spans="2:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="C33" s="11" t="s">
         <v>66</v>
       </c>
       <c r="D33" s="10"/>
@@ -998,8 +998,8 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C34" s="13" t="s">
+    <row r="34" spans="2:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="C34" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D34" s="10"/>
@@ -1008,8 +1008,8 @@
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C35" s="11" t="s">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
         <v>45</v>
       </c>
       <c r="D35" s="10"/>
@@ -1018,8 +1018,8 @@
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C36" s="11" t="s">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
         <v>46</v>
       </c>
       <c r="D36" s="10"/>
@@ -1028,7 +1028,7 @@
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C37" s="7" t="s">
         <v>61</v>
       </c>
@@ -1038,8 +1038,8 @@
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C38" s="11" t="s">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
         <v>47</v>
       </c>
       <c r="D38" s="10"/>
@@ -1048,7 +1048,7 @@
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="7" t="s">
         <v>48</v>
       </c>
@@ -1058,8 +1058,8 @@
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C40" s="11" t="s">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
         <v>55</v>
       </c>
       <c r="D40" s="10"/>
@@ -1068,15 +1068,15 @@
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C41" s="11"/>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C41"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="18" t="s">
         <v>44</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
@@ -1120,7 +1120,7 @@
       <c r="K43" s="18"/>
       <c r="L43" s="18"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
@@ -1132,43 +1132,43 @@
       <c r="K44" s="18"/>
       <c r="L44" s="18"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C45" s="16" t="s">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C45" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H45" s="16" t="s">
+      <c r="H45" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I45" s="16" t="s">
+      <c r="I45" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J45" s="16" t="s">
+      <c r="J45" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="K45" s="16" t="s">
+      <c r="K45" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="L45" s="16" t="s">
+      <c r="L45" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>20</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" s="1"/>
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
@@ -1216,8 +1216,8 @@
       <c r="K48" s="6"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B49" s="15" t="s">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B49" s="14" t="s">
         <v>63</v>
       </c>
       <c r="C49" s="4"/>
@@ -1231,13 +1231,13 @@
       <c r="K49" s="6"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>1</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>2</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -1354,13 +1354,13 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B55" s="15" t="s">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B55" s="14" t="s">
         <v>4</v>
       </c>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>36</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>37</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>38</v>
       </c>
@@ -1465,42 +1465,42 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>60</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D59" s="13">
         <v>10000</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="13">
         <v>10000</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F59" s="13">
         <v>20000</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G59" s="13">
         <v>30000</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H59" s="13">
         <v>40000</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I59" s="13">
         <v>50000</v>
       </c>
-      <c r="J59" s="14">
+      <c r="J59" s="13">
         <v>60000</v>
       </c>
-      <c r="K59" s="14">
+      <c r="K59" s="13">
         <v>70000</v>
       </c>
-      <c r="L59" s="14">
+      <c r="L59" s="13">
         <v>80000</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>35</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>34</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>12</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>14</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>15</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>56</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>5</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>8</v>
       </c>
@@ -1780,183 +1780,178 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>23</v>
       </c>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>22</v>
       </c>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>24</v>
       </c>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>53</v>
       </c>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>54</v>
       </c>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>58</v>
       </c>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>41</v>
       </c>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>42</v>
       </c>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B81" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>64</v>
       </c>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>65</v>
       </c>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B86" s="12" t="s">
+    <row r="86" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B86" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B87" s="19" t="s">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B87" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C97" s="20" t="s">
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C97" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D97" s="20"/>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
+      <c r="D97" s="17"/>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B87:G95"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="J42:J44"/>
-    <mergeCell ref="K42:K44"/>
-    <mergeCell ref="L42:L44"/>
     <mergeCell ref="C2:H4"/>
     <mergeCell ref="C6:H9"/>
     <mergeCell ref="C11:H15"/>
@@ -1970,6 +1965,11 @@
     <mergeCell ref="F42:F44"/>
     <mergeCell ref="G42:G44"/>
     <mergeCell ref="H42:H44"/>
+    <mergeCell ref="B87:G95"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="L42:L44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
